--- a/游戏机制/生物生成/各种生物生成放置条件.xlsx
+++ b/游戏机制/生物生成/各种生物生成放置条件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10600" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="SpawnPlacements 代码解读" sheetId="1" r:id="rId1"/>
@@ -134,11 +134,11 @@
   <si>
     <t>非和平 and (1/20概率 or 水下不可见天空(此方块)) and 下方含水 and (此处含水 or 某种刷怪笼生成)
 水下不可见天空（此方块)：
- 如果：此方块 &gt;= 海平面，
- 那么：return 此处天空亮度 &lt; 15
- 否则(此方块 &lt; 海平面)：
-  此方块海平面高度处天空亮度 &lt; 15
-  or “海平面下方方块 ~ 生成点上方方块”的范围不存在“不完全透光 and 不是流体(包含气泡柱)”的方块</t>
+    如果：此方块 &gt;= 海平面，
+    那么：return 此处天空亮度 &lt; 15
+    否则(此方块 &lt; 海平面)：
+        此方块海平面高度处天空亮度 &lt; 15
+        or “海平面下方方块 ~ 生成点上方方块”的范围不存在“不完全透光 and 不是流体(包含气泡柱)”的方块</t>
   </si>
   <si>
     <t>ELDER_GUARDIAN</t>
@@ -245,20 +245,19 @@
     <t>checkMonsterSpawnRules</t>
   </si>
   <si>
-    <t>非和平 and checkMobSpawnRules
+    <t xml:space="preserve">非和平 and checkMobSpawnRules
 and (试炼刷怪笼生成 or isDarkEnoughToSpawn)
 其中 isDarkEnoughToSpawn： # 生成位置足够暗
-    skyLight &lt;= (0~31)的随机整数 # 天空光越暗越好，为零时一定成功
-    and 方块亮度 &lt; (下界=15，其余=0)
-    and “自定义实际亮度” &lt; (下界=7, 其余=随机(0~7)) # 逆天mojang到处整随机数
-    自定义实际亮度： # 逆天自定义亮度
+    (1 - 天空亮度/32)概率
+    and 方块亮度 &lt;= 此维度“monster_spawn_block_light_limit”(下界=15，其余维度=0)
+    and 自定义实际亮度 &lt;= 此维度“monster_spawn_light_level”(下界=7, 其余维度=随机(0~7))
+    其中 自定义实际亮度：
         如果：此维度"has_skylight" == true
             and 此维度"has_ceiling" == fasle
-            and rainLevel*thunderLevel &gt; 0.9 # 可以认为是主世界的雷暴天气时
+            and rainLevel*thunderLevel &gt; 0.9
         那么：返回 max(blockLight, skyLight - 10)
-        否则：返回 max(blockLight, skyLight - skyDarken)
-    # "monster_spawn_block_light_limit"：下界=15，其余=0
-    # "monster_spawn_light_level"：下界=7, 其余=随机(0~7)</t>
+        否则：返回 max(blockLight, skyLight - skyDarken) # 实际亮度
+</t>
   </si>
   <si>
     <t>ILLUSIONER</t>
@@ -351,7 +350,7 @@
 那么：j=7
 否则：j=4，并且1/2概率停止生成
 判断：
-    实际亮度 &gt; 0 ~ j-1 的随机数
+    实际亮度 &lt;=  0 ~ j-1 的随机数
     and 此处方块有“BlockTags.BATS_SPAWNABLE_ON”(石头、三废岩、凝灰岩、深板岩)
     and (某种刷怪笼生成 or isValidSpawn(下方方块))</t>
   </si>
@@ -588,9 +587,8 @@
     <t>checkPolarBearSpawnRules</t>
   </si>
   <si>
-    <t xml:space="preserve">    (下方方块为“BlockTags.ANIMALS_SPAWNABLE_ON”(只有草方块)
-    and (试炼刷怪笼生成 or max(天空亮度, 方块亮度) &gt;= 9))
-or 
+    <t>checkAnimalSpawnRules
+or
     (此处群系为“BiomeTags.POLAR_BEARS_SPAWN_ON_ALTERNATE_BLOCKS”(冻洋、深海冻洋) 
     and 下方方块为“BlockTags.POLAR_BEARS_SPAWNABLE_ON_ALTERNATE”(冰)
     and max(天空亮度, 方块亮度) &gt;= 9)</t>
@@ -2064,7 +2062,7 @@
   <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2179,7 +2177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="70" customHeight="1" spans="1:6">
+    <row r="6" ht="69" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2199,7 +2197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" ht="70" customHeight="1" spans="1:6">
+    <row r="7" ht="69" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +2422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" ht="54" customHeight="1" spans="1:6">
+    <row r="19" ht="42" customHeight="1" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" ht="54" customHeight="1" spans="1:6">
+    <row r="20" ht="42" customHeight="1" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2460,7 +2458,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" ht="54" customHeight="1" spans="1:6">
+    <row r="21" ht="42" customHeight="1" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
@@ -2476,7 +2474,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" ht="54" customHeight="1" spans="1:6">
+    <row r="22" ht="42" customHeight="1" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -2492,7 +2490,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" ht="54" customHeight="1" spans="1:6">
+    <row r="23" ht="42" customHeight="1" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -3002,7 +3000,7 @@
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="28" customHeight="1" spans="1:6">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>129</v>
       </c>
@@ -3022,7 +3020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" ht="28" customHeight="1" spans="1:6">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -3038,7 +3036,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" ht="28" customHeight="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
@@ -3054,7 +3052,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" ht="28" customHeight="1" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -3070,7 +3068,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" ht="28" customHeight="1" spans="1:6">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>133</v>
       </c>
@@ -3086,7 +3084,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" ht="28" customHeight="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
@@ -3102,7 +3100,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" ht="28" customHeight="1" spans="1:6">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>135</v>
       </c>
@@ -3118,7 +3116,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" ht="28" customHeight="1" spans="1:6">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>136</v>
       </c>
@@ -3134,7 +3132,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" ht="28" customHeight="1" spans="1:6">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>137</v>
       </c>
@@ -3150,7 +3148,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" ht="28" customHeight="1" spans="1:6">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>138</v>
       </c>
@@ -3166,7 +3164,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" ht="28" customHeight="1" spans="1:6">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -3182,7 +3180,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" ht="28" customHeight="1" spans="1:6">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>140</v>
       </c>
@@ -3198,7 +3196,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" ht="28" customHeight="1" spans="1:6">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>141</v>
       </c>
@@ -3214,7 +3212,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" ht="28" customHeight="1" spans="1:6">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>142</v>
       </c>
@@ -3330,7 +3328,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" ht="84" spans="1:6">
+    <row r="71" ht="70" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>163</v>
       </c>
@@ -3558,7 +3556,7 @@
   <sheetPr/>
   <dimension ref="B1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/游戏机制/生物生成/各种生物生成放置条件.xlsx
+++ b/游戏机制/生物生成/各种生物生成放置条件.xlsx
@@ -250,7 +250,7 @@
 其中 isDarkEnoughToSpawn： # 生成位置足够暗
     (1 - 天空亮度/32)概率
     and 方块亮度 &lt;= 此维度“monster_spawn_block_light_limit”(下界=15，其余维度=0)
-    and 自定义实际亮度 &lt;= 此维度“monster_spawn_light_level”(下界=7, 其余维度=随机(0~7))
+    and 自定义实际亮度 &lt;= 此维度“monster_spawn_light_level”(下界=7，末地=15，主世界和洞穴=随机(0~7))
     其中 自定义实际亮度：
         如果：此维度"has_skylight" == true
             and 此维度"has_ceiling" == fasle

--- a/游戏机制/生物生成/各种生物生成放置条件.xlsx
+++ b/游戏机制/生物生成/各种生物生成放置条件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Minecraft\tree-hole\游戏机制\生物生成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105EE16D-2838-4C2C-A37C-58086213FAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8831B5E7-9A7A-400B-885F-1C3E1B72F914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,15 +135,6 @@
   </si>
   <si>
     <t>checkGuardianSpawnRules</t>
-  </si>
-  <si>
-    <t>非和平 and (1/20概率 or 水下不可见天空(此方块)) and 下方含水 and (此处含水 or 某种刷怪笼生成)
-水下不可见天空（此方块)：
-    如果：此方块 &gt;= 海平面，
-    那么：return 此处天空亮度 &lt; 15
-    否则(此方块 &lt; 海平面)：
-        此方块海平面高度处天空亮度 &lt; 15
-        or “海平面下方方块 ~ 生成点上方方块”的范围不存在“不完全透光 and 不是流体(包含气泡柱)”的方块</t>
   </si>
   <si>
     <t>ELDER_GUARDIAN</t>
@@ -995,6 +986,16 @@
     豹猫：!containsAnyLiquid and isUnobstructed and 此处y &gt;= 海平面(63) and 下方方块为草方块或树叶
     铁傀儡：下方方块上表面碰撞箱完整 and 此处和上方3格满足isValidEmptySpawnBlock判断(此处可以有液体，上方三格不能有)
 ```</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>非和平 and (1/20概率 or 水下不可见天空(此方块)) and 下方含水 and (此处含水 or 某种刷怪笼生成)
+水下不可见天空（此方块)：
+    如果：此方块 &gt;= 海平面，
+    那么：return 此处天空亮度 &lt; 15
+    否则(此方块 &lt; 海平面)：
+        此方块海平面高度处天空亮度 &lt; 15
+        or “海平面下方方块 ~ 生成点上方方块”的范围不存在“不完全透光 and 不是流体(包含气泡柱)”的方块</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1179,22 +1180,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1797,10 +1798,10 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1813,16 +1814,16 @@
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>13</v>
@@ -1833,12 +1834,12 @@
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
@@ -1847,18 +1848,18 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
         <v>205</v>
       </c>
-      <c r="E8" t="s">
-        <v>206</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -1867,18 +1868,18 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>13</v>
@@ -1887,16 +1888,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>13</v>
@@ -1905,18 +1906,18 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>36</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>13</v>
@@ -1925,16 +1926,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>13</v>
@@ -1943,16 +1944,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>13</v>
@@ -1961,1265 +1962,1255 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="E24" s="18"/>
       <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E26" s="16"/>
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E28" s="16"/>
       <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E29" s="16"/>
       <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E30" s="16"/>
       <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E31" s="16"/>
       <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E32" s="16"/>
       <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E33" s="16"/>
       <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="E34" s="16"/>
       <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="18" t="s">
+      <c r="F35" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="112" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="70" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="F47" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="F52" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E53" s="16"/>
       <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E54" s="16"/>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E55" s="16"/>
       <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E56" s="16"/>
       <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E57" s="16"/>
       <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E58" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E58" s="16"/>
       <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E59" s="16"/>
       <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E60" s="16"/>
       <c r="F60" s="19"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E61" s="16"/>
       <c r="F61" s="19"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E62" s="16"/>
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E63" s="16"/>
       <c r="F63" s="19"/>
     </row>
     <row r="64" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E64" s="16"/>
       <c r="F64" s="19"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E65" s="16"/>
       <c r="F65" s="19"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E66" s="16"/>
       <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="70" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="70" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="70" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="168" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="F77" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>116</v>
+        <v>58</v>
+      </c>
+      <c r="E78" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
-      </c>
-      <c r="E79" s="17"/>
-      <c r="F79" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="E79" s="21"/>
+      <c r="F79" s="20"/>
     </row>
     <row r="80" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" s="17"/>
-      <c r="F80" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="E80" s="21"/>
+      <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E25:E34"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F25:F34"/>
-    <mergeCell ref="F35:F37"/>
     <mergeCell ref="F78:F80"/>
     <mergeCell ref="E78:E80"/>
     <mergeCell ref="E35:E37"/>
@@ -3227,6 +3218,16 @@
     <mergeCell ref="E52:E66"/>
     <mergeCell ref="F47:F51"/>
     <mergeCell ref="F52:F66"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F25:F34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E25:E34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3248,38 +3249,38 @@
   <sheetData>
     <row r="1" spans="2:3" ht="182" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="126" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="280" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="252" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="266" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
